--- a/DateBase/orders/Nha Thu_2026-1-19.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-19.xlsx
@@ -762,6 +762,9 @@
       <c r="C39" t="str">
         <v>745_海芋红_Calla Lily_undefined_1bunch</v>
       </c>
+      <c r="F39" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="C40" t="str">
@@ -833,7 +836,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08.5107881.522061421411739105552153030302020151035105103310000</v>
+        <v>08.5107881.522061421411739105552153030302020151035105103310300</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-19.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -770,15 +770,194 @@
       <c r="C40" t="str">
         <v>855_海芋粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F40" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="C41" t="str">
         <v>775_海芋黑_Calla Lily_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>1</v>
+      </c>
+      <c r="C42" t="str">
+        <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F42" t="str">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>634_干花安娜香槟_undefined_undefined_1stem</v>
+      </c>
+      <c r="F43" t="str">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F44" t="str">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F45" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>3</v>
+      </c>
+      <c r="C47" t="str">
+        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>794_小菊罗西香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>820_蝴蝶洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2</v>
+      </c>
+      <c r="C55" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -836,7 +1015,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08.5107881.522061421411739105552153030302020151035105103310300</v>
+        <v>08.5107881.522061421411739105552153030302020151035105103310333807557171033251052055555520650</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-19.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-19.xlsx
@@ -954,6 +954,9 @@
       <c r="C61" t="str">
         <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1015,7 +1018,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08.5107881.522061421411739105552153030302020151035105103310333807557171033251052055555520650</v>
+        <v>08.5107881.522061421411739105552153030302020151035105103310333807557171033251052055555520655</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-19.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -958,9 +958,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>3</v>
+      </c>
+      <c r="C67" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>791_菟葵黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1018,7 +1098,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08.5107881.522061421411739105552153030302020151035105103310333807557171033251052055555520655</v>
+        <v>08.5107881.5220614214117391055521530303020201510351051033103338075571710332510520555555206551010555555100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-19.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-19.xlsx
@@ -1035,7 +1035,7 @@
     </row>
     <row r="71">
       <c r="C71" t="str">
-        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-19.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-19.xlsx
@@ -1037,6 +1037,9 @@
       <c r="C71" t="str">
         <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1098,7 +1101,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08.5107881.5220614214117391055521530303020201510351051033103338075571710332510520555555206551010555555100</v>
+        <v>08.5107881.5220614214117391055521530303020201510351051033103338075571710332510520555555206551010555555105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-19.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-19.xlsx
@@ -1103,6 +1103,9 @@
       <c r="G2" t="str">
         <v>08.5107881.5220614214117391055521530303020201510351051033103338075571710332510520555555206551010555555105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
